--- a/src/lib/test.xlsx
+++ b/src/lib/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/workspace/soil-domain-service/src/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA3AA77-4736-3E42-AD7B-3023E67B81C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E73A1A-E40E-F044-B7B8-DE0C9B863C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{42C0B16E-96D7-034B-8B1B-184EBA1B02CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="808">
   <si>
     <t>NrKlant</t>
   </si>
@@ -2449,6 +2449,15 @@
   </si>
   <si>
     <t>Sample_description</t>
+  </si>
+  <si>
+    <t>EMPTY1</t>
+  </si>
+  <si>
+    <t>EMPTY2</t>
+  </si>
+  <si>
+    <t>EMPTY3</t>
   </si>
 </sst>
 </file>
@@ -2850,7 +2859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED949289-F933-6F40-B475-500D823FD8B6}">
   <dimension ref="A1:CK356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="A333" sqref="A333"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -25644,6 +25655,9 @@
       </c>
     </row>
     <row r="209" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>805</v>
+      </c>
       <c r="B209">
         <v>8696497</v>
       </c>
@@ -34802,6 +34816,9 @@
       </c>
     </row>
     <row r="285" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>806</v>
+      </c>
       <c r="B285" s="4">
         <v>8696497</v>
       </c>
@@ -40176,6 +40193,9 @@
       </c>
     </row>
     <row r="333" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>807</v>
+      </c>
       <c r="B333">
         <v>8696497</v>
       </c>

--- a/src/lib/test.xlsx
+++ b/src/lib/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/workspace/soil-domain-service/src/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E73A1A-E40E-F044-B7B8-DE0C9B863C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0BD1D7-738E-D549-9956-5A9B848B4C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{42C0B16E-96D7-034B-8B1B-184EBA1B02CC}"/>
+    <workbookView xWindow="4680" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{42C0B16E-96D7-034B-8B1B-184EBA1B02CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="810">
   <si>
     <t>NrKlant</t>
   </si>
@@ -1575,9 +1575,6 @@
     <t>PACKHOUSE 18494</t>
   </si>
   <si>
-    <t>PADDOCK</t>
-  </si>
-  <si>
     <t>PADDOCK 18488</t>
   </si>
   <si>
@@ -2448,16 +2445,25 @@
     <t>YOUNGM26S 18738</t>
   </si>
   <si>
-    <t>Sample_description</t>
-  </si>
-  <si>
-    <t>EMPTY1</t>
-  </si>
-  <si>
-    <t>EMPTY2</t>
-  </si>
-  <si>
-    <t>EMPTY3</t>
+    <t>ORCHARD_KEY</t>
+  </si>
+  <si>
+    <t>PADDOCKA</t>
+  </si>
+  <si>
+    <t>PADDOCKB</t>
+  </si>
+  <si>
+    <t>SOUTHAFRICA</t>
+  </si>
+  <si>
+    <t>SOUTHAFRICB</t>
+  </si>
+  <si>
+    <t>WINDBREAKA</t>
+  </si>
+  <si>
+    <t>WINDBREAKB</t>
   </si>
 </sst>
 </file>
@@ -2859,15 +2865,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED949289-F933-6F40-B475-500D823FD8B6}">
   <dimension ref="A1:CK356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A333" sqref="A333"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="12" max="12" width="47.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -25499,7 +25509,7 @@
     </row>
     <row r="208" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>513</v>
+        <v>804</v>
       </c>
       <c r="B208" s="4">
         <v>8696497</v>
@@ -25526,7 +25536,7 @@
         <v>91</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M208" s="3" t="s">
         <v>92</v>
@@ -25680,7 +25690,7 @@
         <v>91</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M209" t="s">
         <v>92</v>
@@ -25760,7 +25770,7 @@
     </row>
     <row r="210" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B210">
         <v>8696497</v>
@@ -25784,7 +25794,7 @@
         <v>91</v>
       </c>
       <c r="L210" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M210" t="s">
         <v>92</v>
@@ -25861,7 +25871,7 @@
     </row>
     <row r="211" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B211" s="4">
         <v>8696497</v>
@@ -25888,7 +25898,7 @@
         <v>91</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M211" s="3" t="s">
         <v>92</v>
@@ -26018,7 +26028,7 @@
     </row>
     <row r="212" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B212">
         <v>8696497</v>
@@ -26042,7 +26052,7 @@
         <v>91</v>
       </c>
       <c r="L212" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M212" t="s">
         <v>92</v>
@@ -26119,7 +26129,7 @@
     </row>
     <row r="213" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B213" s="4">
         <v>8696497</v>
@@ -26146,7 +26156,7 @@
         <v>91</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M213" s="3" t="s">
         <v>92</v>
@@ -26276,7 +26286,7 @@
     </row>
     <row r="214" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B214" s="4">
         <v>8696497</v>
@@ -26303,7 +26313,7 @@
         <v>91</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M214" s="3" t="s">
         <v>92</v>
@@ -26433,7 +26443,7 @@
     </row>
     <row r="215" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B215" s="4">
         <v>8696497</v>
@@ -26460,7 +26470,7 @@
         <v>91</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M215" s="3" t="s">
         <v>92</v>
@@ -26590,7 +26600,7 @@
     </row>
     <row r="216" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B216">
         <v>8696497</v>
@@ -26614,7 +26624,7 @@
         <v>91</v>
       </c>
       <c r="L216" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M216" t="s">
         <v>92</v>
@@ -26691,7 +26701,7 @@
     </row>
     <row r="217" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B217">
         <v>8696497</v>
@@ -26715,7 +26725,7 @@
         <v>91</v>
       </c>
       <c r="L217" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M217" t="s">
         <v>92</v>
@@ -26795,7 +26805,7 @@
     </row>
     <row r="218" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B218">
         <v>8696497</v>
@@ -26819,7 +26829,7 @@
         <v>91</v>
       </c>
       <c r="L218" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M218" t="s">
         <v>92</v>
@@ -26896,7 +26906,7 @@
     </row>
     <row r="219" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B219" s="4">
         <v>8696497</v>
@@ -26923,7 +26933,7 @@
         <v>91</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M219" s="3" t="s">
         <v>92</v>
@@ -27053,7 +27063,7 @@
     </row>
     <row r="220" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B220">
         <v>8696497</v>
@@ -27077,7 +27087,7 @@
         <v>91</v>
       </c>
       <c r="L220" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M220" t="s">
         <v>92</v>
@@ -27154,7 +27164,7 @@
     </row>
     <row r="221" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B221" s="4">
         <v>8696497</v>
@@ -27181,7 +27191,7 @@
         <v>91</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M221" s="3" t="s">
         <v>92</v>
@@ -27313,7 +27323,7 @@
     </row>
     <row r="222" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B222">
         <v>8696497</v>
@@ -27337,7 +27347,7 @@
         <v>91</v>
       </c>
       <c r="L222" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M222" t="s">
         <v>92</v>
@@ -27414,7 +27424,7 @@
     </row>
     <row r="223" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B223">
         <v>8696497</v>
@@ -27438,7 +27448,7 @@
         <v>91</v>
       </c>
       <c r="L223" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M223" t="s">
         <v>92</v>
@@ -27515,7 +27525,7 @@
     </row>
     <row r="224" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B224">
         <v>8696497</v>
@@ -27539,7 +27549,7 @@
         <v>91</v>
       </c>
       <c r="L224" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M224" t="s">
         <v>92</v>
@@ -27616,7 +27626,7 @@
     </row>
     <row r="225" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B225" s="4">
         <v>8696497</v>
@@ -27643,7 +27653,7 @@
         <v>91</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M225" s="3" t="s">
         <v>92</v>
@@ -27773,7 +27783,7 @@
     </row>
     <row r="226" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B226" s="4">
         <v>8696497</v>
@@ -27800,7 +27810,7 @@
         <v>91</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M226" s="3" t="s">
         <v>92</v>
@@ -27932,7 +27942,7 @@
     </row>
     <row r="227" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B227" s="4">
         <v>8696497</v>
@@ -27959,7 +27969,7 @@
         <v>91</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M227" s="3" t="s">
         <v>92</v>
@@ -28089,7 +28099,7 @@
     </row>
     <row r="228" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B228" s="4">
         <v>8696497</v>
@@ -28116,7 +28126,7 @@
         <v>91</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M228" s="3" t="s">
         <v>92</v>
@@ -28248,7 +28258,7 @@
     </row>
     <row r="229" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B229">
         <v>8696497</v>
@@ -28272,7 +28282,7 @@
         <v>91</v>
       </c>
       <c r="L229" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M229" t="s">
         <v>92</v>
@@ -28349,7 +28359,7 @@
     </row>
     <row r="230" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B230">
         <v>8696497</v>
@@ -28373,7 +28383,7 @@
         <v>91</v>
       </c>
       <c r="L230" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M230" t="s">
         <v>92</v>
@@ -28450,7 +28460,7 @@
     </row>
     <row r="231" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B231">
         <v>8696497</v>
@@ -28474,7 +28484,7 @@
         <v>91</v>
       </c>
       <c r="L231" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M231" t="s">
         <v>92</v>
@@ -28551,7 +28561,7 @@
     </row>
     <row r="232" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B232">
         <v>8696497</v>
@@ -28575,7 +28585,7 @@
         <v>91</v>
       </c>
       <c r="L232" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M232" t="s">
         <v>92</v>
@@ -28652,7 +28662,7 @@
     </row>
     <row r="233" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B233">
         <v>8696497</v>
@@ -28676,7 +28686,7 @@
         <v>91</v>
       </c>
       <c r="L233" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M233" t="s">
         <v>92</v>
@@ -28753,7 +28763,7 @@
     </row>
     <row r="234" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B234">
         <v>8696497</v>
@@ -28777,7 +28787,7 @@
         <v>91</v>
       </c>
       <c r="L234" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M234" t="s">
         <v>92</v>
@@ -28854,7 +28864,7 @@
     </row>
     <row r="235" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B235">
         <v>8696497</v>
@@ -28878,7 +28888,7 @@
         <v>91</v>
       </c>
       <c r="L235" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M235" t="s">
         <v>92</v>
@@ -28955,7 +28965,7 @@
     </row>
     <row r="236" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B236">
         <v>8696497</v>
@@ -28979,7 +28989,7 @@
         <v>91</v>
       </c>
       <c r="L236" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M236" t="s">
         <v>92</v>
@@ -29056,7 +29066,7 @@
     </row>
     <row r="237" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B237">
         <v>8696497</v>
@@ -29080,7 +29090,7 @@
         <v>91</v>
       </c>
       <c r="L237" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M237" t="s">
         <v>92</v>
@@ -29157,7 +29167,7 @@
     </row>
     <row r="238" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B238" s="4">
         <v>8696497</v>
@@ -29184,7 +29194,7 @@
         <v>91</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M238" s="3" t="s">
         <v>92</v>
@@ -29314,7 +29324,7 @@
     </row>
     <row r="239" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B239" s="4">
         <v>8696497</v>
@@ -29341,7 +29351,7 @@
         <v>91</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M239" s="3" t="s">
         <v>92</v>
@@ -29473,7 +29483,7 @@
     </row>
     <row r="240" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B240">
         <v>8696497</v>
@@ -29497,7 +29507,7 @@
         <v>91</v>
       </c>
       <c r="L240" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M240" t="s">
         <v>92</v>
@@ -29574,7 +29584,7 @@
     </row>
     <row r="241" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B241">
         <v>8696497</v>
@@ -29598,7 +29608,7 @@
         <v>91</v>
       </c>
       <c r="L241" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M241" t="s">
         <v>92</v>
@@ -29675,7 +29685,7 @@
     </row>
     <row r="242" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B242">
         <v>8696497</v>
@@ -29699,7 +29709,7 @@
         <v>91</v>
       </c>
       <c r="L242" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M242" t="s">
         <v>92</v>
@@ -29776,7 +29786,7 @@
     </row>
     <row r="243" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B243">
         <v>8696497</v>
@@ -29800,7 +29810,7 @@
         <v>91</v>
       </c>
       <c r="L243" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M243" t="s">
         <v>92</v>
@@ -29877,7 +29887,7 @@
     </row>
     <row r="244" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B244">
         <v>8696497</v>
@@ -29901,7 +29911,7 @@
         <v>91</v>
       </c>
       <c r="L244" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M244" t="s">
         <v>92</v>
@@ -29978,7 +29988,7 @@
     </row>
     <row r="245" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B245">
         <v>8696497</v>
@@ -30002,7 +30012,7 @@
         <v>91</v>
       </c>
       <c r="L245" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M245" t="s">
         <v>92</v>
@@ -30079,7 +30089,7 @@
     </row>
     <row r="246" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B246">
         <v>8696497</v>
@@ -30103,7 +30113,7 @@
         <v>91</v>
       </c>
       <c r="L246" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M246" t="s">
         <v>92</v>
@@ -30180,7 +30190,7 @@
     </row>
     <row r="247" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B247">
         <v>8696497</v>
@@ -30204,7 +30214,7 @@
         <v>91</v>
       </c>
       <c r="L247" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M247" t="s">
         <v>92</v>
@@ -30281,7 +30291,7 @@
     </row>
     <row r="248" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B248">
         <v>8696497</v>
@@ -30305,7 +30315,7 @@
         <v>91</v>
       </c>
       <c r="L248" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M248" t="s">
         <v>92</v>
@@ -30317,7 +30327,7 @@
         <v>94</v>
       </c>
       <c r="P248" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -30385,7 +30395,7 @@
     </row>
     <row r="249" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B249">
         <v>8696497</v>
@@ -30409,7 +30419,7 @@
         <v>91</v>
       </c>
       <c r="L249" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M249" t="s">
         <v>92</v>
@@ -30486,7 +30496,7 @@
     </row>
     <row r="250" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B250">
         <v>8696497</v>
@@ -30510,7 +30520,7 @@
         <v>91</v>
       </c>
       <c r="L250" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M250" t="s">
         <v>92</v>
@@ -30587,7 +30597,7 @@
     </row>
     <row r="251" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B251">
         <v>8696497</v>
@@ -30611,7 +30621,7 @@
         <v>91</v>
       </c>
       <c r="L251" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M251" t="s">
         <v>92</v>
@@ -30688,7 +30698,7 @@
     </row>
     <row r="252" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B252">
         <v>8696497</v>
@@ -30712,7 +30722,7 @@
         <v>91</v>
       </c>
       <c r="L252" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M252" t="s">
         <v>92</v>
@@ -30789,7 +30799,7 @@
     </row>
     <row r="253" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B253">
         <v>8696497</v>
@@ -30813,7 +30823,7 @@
         <v>91</v>
       </c>
       <c r="L253" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M253" t="s">
         <v>92</v>
@@ -30890,7 +30900,7 @@
     </row>
     <row r="254" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B254">
         <v>8696497</v>
@@ -30914,7 +30924,7 @@
         <v>91</v>
       </c>
       <c r="L254" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M254" t="s">
         <v>92</v>
@@ -30991,7 +31001,7 @@
     </row>
     <row r="255" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B255">
         <v>8696497</v>
@@ -31015,7 +31025,7 @@
         <v>91</v>
       </c>
       <c r="L255" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M255" t="s">
         <v>92</v>
@@ -31092,7 +31102,7 @@
     </row>
     <row r="256" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B256" s="4">
         <v>8696497</v>
@@ -31119,7 +31129,7 @@
         <v>91</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M256" s="3" t="s">
         <v>92</v>
@@ -31251,7 +31261,7 @@
     </row>
     <row r="257" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B257" s="4">
         <v>8696497</v>
@@ -31278,7 +31288,7 @@
         <v>91</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M257" s="3" t="s">
         <v>92</v>
@@ -31410,7 +31420,7 @@
     </row>
     <row r="258" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B258" s="4">
         <v>8696497</v>
@@ -31437,7 +31447,7 @@
         <v>91</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M258" s="3" t="s">
         <v>92</v>
@@ -31567,7 +31577,7 @@
     </row>
     <row r="259" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B259" s="4">
         <v>8696497</v>
@@ -31594,7 +31604,7 @@
         <v>91</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M259" s="3" t="s">
         <v>92</v>
@@ -31726,7 +31736,7 @@
     </row>
     <row r="260" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B260" s="4">
         <v>8696497</v>
@@ -31753,7 +31763,7 @@
         <v>91</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M260" s="3" t="s">
         <v>92</v>
@@ -31883,7 +31893,7 @@
     </row>
     <row r="261" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B261" s="4">
         <v>8696497</v>
@@ -31910,7 +31920,7 @@
         <v>91</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M261" s="3" t="s">
         <v>92</v>
@@ -32042,7 +32052,7 @@
     </row>
     <row r="262" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B262" s="4">
         <v>8696497</v>
@@ -32069,7 +32079,7 @@
         <v>91</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M262" s="3" t="s">
         <v>92</v>
@@ -32199,7 +32209,7 @@
     </row>
     <row r="263" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B263" s="4">
         <v>8696497</v>
@@ -32226,7 +32236,7 @@
         <v>91</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M263" s="3" t="s">
         <v>92</v>
@@ -32356,7 +32366,7 @@
     </row>
     <row r="264" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B264" s="4">
         <v>8696497</v>
@@ -32383,7 +32393,7 @@
         <v>91</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M264" s="3" t="s">
         <v>92</v>
@@ -32515,7 +32525,7 @@
     </row>
     <row r="265" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B265" s="4">
         <v>8696497</v>
@@ -32542,7 +32552,7 @@
         <v>91</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M265" s="3" t="s">
         <v>92</v>
@@ -32672,7 +32682,7 @@
     </row>
     <row r="266" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B266">
         <v>8696497</v>
@@ -32696,7 +32706,7 @@
         <v>91</v>
       </c>
       <c r="L266" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M266" t="s">
         <v>92</v>
@@ -32773,7 +32783,7 @@
     </row>
     <row r="267" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B267">
         <v>8696497</v>
@@ -32797,7 +32807,7 @@
         <v>91</v>
       </c>
       <c r="L267" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M267" t="s">
         <v>92</v>
@@ -32874,7 +32884,7 @@
     </row>
     <row r="268" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B268">
         <v>8696497</v>
@@ -32898,7 +32908,7 @@
         <v>91</v>
       </c>
       <c r="L268" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M268" t="s">
         <v>92</v>
@@ -32975,7 +32985,7 @@
     </row>
     <row r="269" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B269" s="4">
         <v>8696497</v>
@@ -33002,7 +33012,7 @@
         <v>91</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M269" s="3" t="s">
         <v>92</v>
@@ -33132,7 +33142,7 @@
     </row>
     <row r="270" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B270">
         <v>8696497</v>
@@ -33156,7 +33166,7 @@
         <v>91</v>
       </c>
       <c r="L270" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M270" t="s">
         <v>92</v>
@@ -33233,7 +33243,7 @@
     </row>
     <row r="271" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B271">
         <v>8696497</v>
@@ -33257,7 +33267,7 @@
         <v>91</v>
       </c>
       <c r="L271" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M271" t="s">
         <v>92</v>
@@ -33334,7 +33344,7 @@
     </row>
     <row r="272" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B272">
         <v>8696497</v>
@@ -33358,7 +33368,7 @@
         <v>91</v>
       </c>
       <c r="L272" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M272" t="s">
         <v>92</v>
@@ -33435,7 +33445,7 @@
     </row>
     <row r="273" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B273">
         <v>8696497</v>
@@ -33459,7 +33469,7 @@
         <v>91</v>
       </c>
       <c r="L273" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M273" t="s">
         <v>92</v>
@@ -33471,7 +33481,7 @@
         <v>94</v>
       </c>
       <c r="P273" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -33536,7 +33546,7 @@
     </row>
     <row r="274" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B274">
         <v>8696497</v>
@@ -33560,7 +33570,7 @@
         <v>91</v>
       </c>
       <c r="L274" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M274" t="s">
         <v>92</v>
@@ -33637,7 +33647,7 @@
     </row>
     <row r="275" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B275">
         <v>8696497</v>
@@ -33661,7 +33671,7 @@
         <v>91</v>
       </c>
       <c r="L275" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M275" t="s">
         <v>92</v>
@@ -33738,7 +33748,7 @@
     </row>
     <row r="276" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B276">
         <v>8696497</v>
@@ -33762,7 +33772,7 @@
         <v>91</v>
       </c>
       <c r="L276" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M276" t="s">
         <v>92</v>
@@ -33839,7 +33849,7 @@
     </row>
     <row r="277" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B277">
         <v>8696497</v>
@@ -33863,7 +33873,7 @@
         <v>91</v>
       </c>
       <c r="L277" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M277" t="s">
         <v>92</v>
@@ -33940,7 +33950,7 @@
     </row>
     <row r="278" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B278" s="4">
         <v>8696497</v>
@@ -33967,7 +33977,7 @@
         <v>91</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M278" s="3" t="s">
         <v>92</v>
@@ -34097,7 +34107,7 @@
     </row>
     <row r="279" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B279">
         <v>8696497</v>
@@ -34121,7 +34131,7 @@
         <v>91</v>
       </c>
       <c r="L279" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M279" t="s">
         <v>92</v>
@@ -34198,7 +34208,7 @@
     </row>
     <row r="280" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B280">
         <v>8696497</v>
@@ -34222,7 +34232,7 @@
         <v>91</v>
       </c>
       <c r="L280" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M280" t="s">
         <v>92</v>
@@ -34299,7 +34309,7 @@
     </row>
     <row r="281" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B281" s="4">
         <v>8696497</v>
@@ -34326,7 +34336,7 @@
         <v>91</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M281" s="3" t="s">
         <v>92</v>
@@ -34456,7 +34466,7 @@
     </row>
     <row r="282" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B282">
         <v>8696497</v>
@@ -34480,7 +34490,7 @@
         <v>91</v>
       </c>
       <c r="L282" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M282" t="s">
         <v>92</v>
@@ -34557,7 +34567,7 @@
     </row>
     <row r="283" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B283" s="4">
         <v>8696497</v>
@@ -34584,7 +34594,7 @@
         <v>91</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M283" s="3" t="s">
         <v>92</v>
@@ -34716,7 +34726,7 @@
     </row>
     <row r="284" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B284">
         <v>8696497</v>
@@ -34740,7 +34750,7 @@
         <v>91</v>
       </c>
       <c r="L284" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M284" t="s">
         <v>92</v>
@@ -34844,7 +34854,7 @@
         <v>91</v>
       </c>
       <c r="L285" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M285" s="3" t="s">
         <v>92</v>
@@ -34974,7 +34984,7 @@
     </row>
     <row r="286" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>666</v>
+        <v>807</v>
       </c>
       <c r="B286" s="4">
         <v>8696497</v>
@@ -35001,7 +35011,7 @@
         <v>91</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M286" s="3" t="s">
         <v>92</v>
@@ -35135,7 +35145,7 @@
     </row>
     <row r="287" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B287">
         <v>8696497</v>
@@ -35159,7 +35169,7 @@
         <v>91</v>
       </c>
       <c r="L287" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M287" t="s">
         <v>92</v>
@@ -35236,7 +35246,7 @@
     </row>
     <row r="288" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B288">
         <v>8696497</v>
@@ -35260,7 +35270,7 @@
         <v>91</v>
       </c>
       <c r="L288" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M288" t="s">
         <v>92</v>
@@ -35337,7 +35347,7 @@
     </row>
     <row r="289" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B289">
         <v>8696497</v>
@@ -35361,7 +35371,7 @@
         <v>91</v>
       </c>
       <c r="L289" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M289" t="s">
         <v>92</v>
@@ -35441,7 +35451,7 @@
     </row>
     <row r="290" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B290">
         <v>8696497</v>
@@ -35465,7 +35475,7 @@
         <v>91</v>
       </c>
       <c r="L290" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M290" t="s">
         <v>92</v>
@@ -35542,7 +35552,7 @@
     </row>
     <row r="291" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B291">
         <v>8696497</v>
@@ -35566,7 +35576,7 @@
         <v>91</v>
       </c>
       <c r="L291" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M291" t="s">
         <v>92</v>
@@ -35643,7 +35653,7 @@
     </row>
     <row r="292" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B292">
         <v>8696497</v>
@@ -35667,7 +35677,7 @@
         <v>91</v>
       </c>
       <c r="L292" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M292" t="s">
         <v>92</v>
@@ -35744,7 +35754,7 @@
     </row>
     <row r="293" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B293">
         <v>8696497</v>
@@ -35768,7 +35778,7 @@
         <v>91</v>
       </c>
       <c r="L293" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M293" t="s">
         <v>92</v>
@@ -35845,7 +35855,7 @@
     </row>
     <row r="294" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B294">
         <v>8696497</v>
@@ -35869,7 +35879,7 @@
         <v>91</v>
       </c>
       <c r="L294" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M294" t="s">
         <v>92</v>
@@ -35946,7 +35956,7 @@
     </row>
     <row r="295" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B295" s="4">
         <v>8696497</v>
@@ -35973,7 +35983,7 @@
         <v>91</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M295" s="3" t="s">
         <v>92</v>
@@ -36103,7 +36113,7 @@
     </row>
     <row r="296" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B296" s="4">
         <v>8696497</v>
@@ -36130,7 +36140,7 @@
         <v>91</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M296" s="3" t="s">
         <v>92</v>
@@ -36260,7 +36270,7 @@
     </row>
     <row r="297" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B297">
         <v>8696497</v>
@@ -36284,7 +36294,7 @@
         <v>91</v>
       </c>
       <c r="L297" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M297" t="s">
         <v>92</v>
@@ -36361,7 +36371,7 @@
     </row>
     <row r="298" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B298">
         <v>8696497</v>
@@ -36385,7 +36395,7 @@
         <v>91</v>
       </c>
       <c r="L298" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M298" t="s">
         <v>92</v>
@@ -36462,7 +36472,7 @@
     </row>
     <row r="299" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B299" s="4">
         <v>8696497</v>
@@ -36489,7 +36499,7 @@
         <v>91</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M299" s="3" t="s">
         <v>92</v>
@@ -36619,7 +36629,7 @@
     </row>
     <row r="300" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B300">
         <v>8696497</v>
@@ -36643,7 +36653,7 @@
         <v>91</v>
       </c>
       <c r="L300" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M300" t="s">
         <v>92</v>
@@ -36720,7 +36730,7 @@
     </row>
     <row r="301" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B301">
         <v>8696497</v>
@@ -36744,7 +36754,7 @@
         <v>91</v>
       </c>
       <c r="L301" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M301" t="s">
         <v>92</v>
@@ -36821,7 +36831,7 @@
     </row>
     <row r="302" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B302">
         <v>8696497</v>
@@ -36845,7 +36855,7 @@
         <v>91</v>
       </c>
       <c r="L302" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M302" t="s">
         <v>92</v>
@@ -36922,7 +36932,7 @@
     </row>
     <row r="303" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B303">
         <v>8696497</v>
@@ -36946,7 +36956,7 @@
         <v>91</v>
       </c>
       <c r="L303" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M303" t="s">
         <v>92</v>
@@ -37023,7 +37033,7 @@
     </row>
     <row r="304" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B304" s="4">
         <v>8696497</v>
@@ -37050,7 +37060,7 @@
         <v>91</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M304" s="3" t="s">
         <v>92</v>
@@ -37180,7 +37190,7 @@
     </row>
     <row r="305" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B305">
         <v>8696497</v>
@@ -37204,7 +37214,7 @@
         <v>91</v>
       </c>
       <c r="L305" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M305" t="s">
         <v>92</v>
@@ -37281,7 +37291,7 @@
     </row>
     <row r="306" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B306">
         <v>8696497</v>
@@ -37305,7 +37315,7 @@
         <v>91</v>
       </c>
       <c r="L306" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M306" t="s">
         <v>92</v>
@@ -37382,7 +37392,7 @@
     </row>
     <row r="307" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B307">
         <v>8696497</v>
@@ -37406,7 +37416,7 @@
         <v>91</v>
       </c>
       <c r="L307" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M307" t="s">
         <v>92</v>
@@ -37486,7 +37496,7 @@
     </row>
     <row r="308" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B308">
         <v>8696497</v>
@@ -37510,7 +37520,7 @@
         <v>91</v>
       </c>
       <c r="L308" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M308" t="s">
         <v>92</v>
@@ -37590,7 +37600,7 @@
     </row>
     <row r="309" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B309">
         <v>8696497</v>
@@ -37614,7 +37624,7 @@
         <v>91</v>
       </c>
       <c r="L309" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M309" t="s">
         <v>92</v>
@@ -37691,7 +37701,7 @@
     </row>
     <row r="310" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B310">
         <v>8696497</v>
@@ -37715,7 +37725,7 @@
         <v>91</v>
       </c>
       <c r="L310" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M310" t="s">
         <v>92</v>
@@ -37792,7 +37802,7 @@
     </row>
     <row r="311" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B311">
         <v>8696497</v>
@@ -37816,7 +37826,7 @@
         <v>91</v>
       </c>
       <c r="L311" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M311" t="s">
         <v>92</v>
@@ -37893,7 +37903,7 @@
     </row>
     <row r="312" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B312">
         <v>8696497</v>
@@ -37917,7 +37927,7 @@
         <v>91</v>
       </c>
       <c r="L312" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M312" t="s">
         <v>92</v>
@@ -37997,7 +38007,7 @@
     </row>
     <row r="313" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B313">
         <v>8696497</v>
@@ -38021,7 +38031,7 @@
         <v>91</v>
       </c>
       <c r="L313" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M313" t="s">
         <v>92</v>
@@ -38098,7 +38108,7 @@
     </row>
     <row r="314" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B314">
         <v>8696497</v>
@@ -38122,7 +38132,7 @@
         <v>91</v>
       </c>
       <c r="L314" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M314" t="s">
         <v>92</v>
@@ -38199,7 +38209,7 @@
     </row>
     <row r="315" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B315">
         <v>8696497</v>
@@ -38223,7 +38233,7 @@
         <v>91</v>
       </c>
       <c r="L315" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M315" t="s">
         <v>92</v>
@@ -38300,7 +38310,7 @@
     </row>
     <row r="316" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B316">
         <v>8696497</v>
@@ -38324,7 +38334,7 @@
         <v>91</v>
       </c>
       <c r="L316" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M316" t="s">
         <v>92</v>
@@ -38401,7 +38411,7 @@
     </row>
     <row r="317" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B317">
         <v>8696497</v>
@@ -38425,7 +38435,7 @@
         <v>91</v>
       </c>
       <c r="L317" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M317" t="s">
         <v>92</v>
@@ -38502,7 +38512,7 @@
     </row>
     <row r="318" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B318">
         <v>8696497</v>
@@ -38526,7 +38536,7 @@
         <v>91</v>
       </c>
       <c r="L318" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M318" t="s">
         <v>92</v>
@@ -38606,7 +38616,7 @@
     </row>
     <row r="319" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B319" s="4">
         <v>8696497</v>
@@ -38633,7 +38643,7 @@
         <v>91</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M319" s="3" t="s">
         <v>92</v>
@@ -38763,7 +38773,7 @@
     </row>
     <row r="320" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B320">
         <v>8696497</v>
@@ -38787,7 +38797,7 @@
         <v>91</v>
       </c>
       <c r="L320" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M320" t="s">
         <v>92</v>
@@ -38864,7 +38874,7 @@
     </row>
     <row r="321" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B321">
         <v>8696497</v>
@@ -38888,7 +38898,7 @@
         <v>91</v>
       </c>
       <c r="L321" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M321" t="s">
         <v>92</v>
@@ -38968,7 +38978,7 @@
     </row>
     <row r="322" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B322" s="4">
         <v>8696497</v>
@@ -38995,7 +39005,7 @@
         <v>91</v>
       </c>
       <c r="L322" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M322" s="3" t="s">
         <v>92</v>
@@ -39125,7 +39135,7 @@
     </row>
     <row r="323" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B323">
         <v>8696497</v>
@@ -39149,7 +39159,7 @@
         <v>91</v>
       </c>
       <c r="L323" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M323" t="s">
         <v>92</v>
@@ -39226,7 +39236,7 @@
     </row>
     <row r="324" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B324">
         <v>8696497</v>
@@ -39250,7 +39260,7 @@
         <v>91</v>
       </c>
       <c r="L324" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M324" t="s">
         <v>92</v>
@@ -39327,7 +39337,7 @@
     </row>
     <row r="325" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B325">
         <v>8696497</v>
@@ -39351,7 +39361,7 @@
         <v>91</v>
       </c>
       <c r="L325" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M325" t="s">
         <v>92</v>
@@ -39428,7 +39438,7 @@
     </row>
     <row r="326" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B326">
         <v>8696497</v>
@@ -39452,7 +39462,7 @@
         <v>91</v>
       </c>
       <c r="L326" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M326" t="s">
         <v>92</v>
@@ -39529,7 +39539,7 @@
     </row>
     <row r="327" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B327">
         <v>8696497</v>
@@ -39553,7 +39563,7 @@
         <v>91</v>
       </c>
       <c r="L327" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M327" t="s">
         <v>92</v>
@@ -39630,7 +39640,7 @@
     </row>
     <row r="328" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B328">
         <v>8696497</v>
@@ -39654,7 +39664,7 @@
         <v>91</v>
       </c>
       <c r="L328" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M328" t="s">
         <v>92</v>
@@ -39731,7 +39741,7 @@
     </row>
     <row r="329" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B329" s="4">
         <v>8696497</v>
@@ -39758,7 +39768,7 @@
         <v>91</v>
       </c>
       <c r="L329" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M329" s="3" t="s">
         <v>92</v>
@@ -39888,7 +39898,7 @@
     </row>
     <row r="330" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B330">
         <v>8696497</v>
@@ -39912,7 +39922,7 @@
         <v>91</v>
       </c>
       <c r="L330" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M330" t="s">
         <v>92</v>
@@ -39924,7 +39934,7 @@
         <v>94</v>
       </c>
       <c r="P330" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Q330">
         <v>0</v>
@@ -39989,7 +39999,7 @@
     </row>
     <row r="331" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B331">
         <v>8696497</v>
@@ -40013,7 +40023,7 @@
         <v>91</v>
       </c>
       <c r="L331" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M331" t="s">
         <v>92</v>
@@ -40090,7 +40100,7 @@
     </row>
     <row r="332" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B332">
         <v>8696497</v>
@@ -40114,7 +40124,7 @@
         <v>91</v>
       </c>
       <c r="L332" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M332" t="s">
         <v>92</v>
@@ -40194,7 +40204,7 @@
     </row>
     <row r="333" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B333">
         <v>8696497</v>
@@ -40218,7 +40228,7 @@
         <v>91</v>
       </c>
       <c r="L333" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M333" t="s">
         <v>92</v>
@@ -40295,7 +40305,7 @@
     </row>
     <row r="334" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="B334">
         <v>8696497</v>
@@ -40319,7 +40329,7 @@
         <v>91</v>
       </c>
       <c r="L334" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M334" t="s">
         <v>92</v>
@@ -40396,7 +40406,7 @@
     </row>
     <row r="335" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B335" s="4">
         <v>8696497</v>
@@ -40423,7 +40433,7 @@
         <v>91</v>
       </c>
       <c r="L335" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M335" s="3" t="s">
         <v>92</v>
@@ -40555,7 +40565,7 @@
     </row>
     <row r="336" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B336">
         <v>8696497</v>
@@ -40579,7 +40589,7 @@
         <v>91</v>
       </c>
       <c r="L336" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M336" t="s">
         <v>92</v>
@@ -40656,7 +40666,7 @@
     </row>
     <row r="337" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B337">
         <v>8696497</v>
@@ -40680,7 +40690,7 @@
         <v>91</v>
       </c>
       <c r="L337" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M337" t="s">
         <v>92</v>
@@ -40757,12 +40767,12 @@
     </row>
     <row r="338" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="339" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B339">
         <v>8696497</v>
@@ -40786,7 +40796,7 @@
         <v>91</v>
       </c>
       <c r="L339" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M339" t="s">
         <v>92</v>
@@ -40863,7 +40873,7 @@
     </row>
     <row r="340" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B340">
         <v>8696497</v>
@@ -40887,7 +40897,7 @@
         <v>91</v>
       </c>
       <c r="L340" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M340" t="s">
         <v>92</v>
@@ -40964,7 +40974,7 @@
     </row>
     <row r="341" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B341">
         <v>8696497</v>
@@ -40988,7 +40998,7 @@
         <v>91</v>
       </c>
       <c r="L341" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M341" t="s">
         <v>92</v>
@@ -41065,7 +41075,7 @@
     </row>
     <row r="342" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B342">
         <v>8696497</v>
@@ -41089,7 +41099,7 @@
         <v>91</v>
       </c>
       <c r="L342" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M342" t="s">
         <v>92</v>
@@ -41166,7 +41176,7 @@
     </row>
     <row r="343" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B343">
         <v>8696497</v>
@@ -41190,7 +41200,7 @@
         <v>91</v>
       </c>
       <c r="L343" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M343" t="s">
         <v>92</v>
@@ -41267,12 +41277,12 @@
     </row>
     <row r="344" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="345" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B345">
         <v>8696497</v>
@@ -41296,7 +41306,7 @@
         <v>91</v>
       </c>
       <c r="L345" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M345" t="s">
         <v>92</v>
@@ -41373,7 +41383,7 @@
     </row>
     <row r="346" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B346">
         <v>8696497</v>
@@ -41397,7 +41407,7 @@
         <v>91</v>
       </c>
       <c r="L346" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M346" t="s">
         <v>92</v>
@@ -41474,7 +41484,7 @@
     </row>
     <row r="347" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B347">
         <v>8696497</v>
@@ -41498,7 +41508,7 @@
         <v>91</v>
       </c>
       <c r="L347" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M347" t="s">
         <v>92</v>
@@ -41575,7 +41585,7 @@
     </row>
     <row r="348" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B348">
         <v>8696497</v>
@@ -41599,7 +41609,7 @@
         <v>91</v>
       </c>
       <c r="L348" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M348" t="s">
         <v>92</v>
@@ -41676,7 +41686,7 @@
     </row>
     <row r="349" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B349">
         <v>8696497</v>
@@ -41700,7 +41710,7 @@
         <v>91</v>
       </c>
       <c r="L349" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M349" t="s">
         <v>92</v>
@@ -41780,7 +41790,7 @@
     </row>
     <row r="350" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B350">
         <v>8696497</v>
@@ -41804,7 +41814,7 @@
         <v>91</v>
       </c>
       <c r="L350" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M350" t="s">
         <v>92</v>
@@ -41881,7 +41891,7 @@
     </row>
     <row r="351" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B351">
         <v>8696497</v>
@@ -41905,7 +41915,7 @@
         <v>91</v>
       </c>
       <c r="L351" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M351" t="s">
         <v>92</v>
@@ -41982,7 +41992,7 @@
     </row>
     <row r="352" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B352">
         <v>8696497</v>
@@ -42006,7 +42016,7 @@
         <v>91</v>
       </c>
       <c r="L352" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M352" t="s">
         <v>92</v>
@@ -42083,7 +42093,7 @@
     </row>
     <row r="353" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B353">
         <v>8696497</v>
@@ -42107,7 +42117,7 @@
         <v>91</v>
       </c>
       <c r="L353" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M353" t="s">
         <v>92</v>
@@ -42184,12 +42194,12 @@
     </row>
     <row r="354" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="355" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B355" s="4">
         <v>8696497</v>
@@ -42216,7 +42226,7 @@
         <v>91</v>
       </c>
       <c r="L355" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M355" s="3" t="s">
         <v>92</v>
@@ -42346,7 +42356,7 @@
     </row>
     <row r="356" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B356" s="4">
         <v>8696497</v>
@@ -42373,7 +42383,7 @@
         <v>91</v>
       </c>
       <c r="L356" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M356" s="3" t="s">
         <v>92</v>
